--- a/biology/Zoologie/Anaspidea/Anaspidea.xlsx
+++ b/biology/Zoologie/Anaspidea/Anaspidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anaspidea est un ordre de mollusques gastéropodes opisthobranches contenant notamment les aplysies ou « lièvres de mer ».
 </t>
@@ -511,15 +523,17 @@
           <t>Taxons subordonnés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (12 mars 2017)[1], cet ordre des mollusques contient les familles :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (12 mars 2017), cet ordre des mollusques contient les familles :
 super-famille Akeroidea Mazzarelli, 1891
 famille Akeridae Mazzarelli, 1891 -- 1 genre, 6 espèces
 super-famille Aplysioidea Lamarck, 1809
 famille Aplysiidae Lamarck, 1809 -- 11 genres, 69 espèces
-ITIS      (9 juillet 2014)[2] y rajoute les Notarchidae. 
-Bouchet &amp; Rocroi (2005) utilise l'appellation synonyme « Aplysiomorpha » pour ce groupe, mais Anaspidea est plus utilisé dans le monde scientifique[3]. 
+ITIS      (9 juillet 2014) y rajoute les Notarchidae. 
+Bouchet &amp; Rocroi (2005) utilise l'appellation synonyme « Aplysiomorpha » pour ce groupe, mais Anaspidea est plus utilisé dans le monde scientifique. 
 </t>
         </is>
       </c>
